--- a/data/maladie_de_verneuil_3.xlsx
+++ b/data/maladie_de_verneuil_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jobert\Documents\Articles\Mémoire Dahlia\MDV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4158BFED-1396-40EE-8503-A0B1DF6584B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD444F05-7C2B-4B13-B5FF-1310C18AF75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maladie de Verneuil" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="175">
   <si>
     <t>Âge (années )</t>
   </si>
@@ -163,12 +163,6 @@
     <t>Ignorance</t>
   </si>
   <si>
-    <t>Cuir chevelu Visage</t>
-  </si>
-  <si>
-    <t>Nodules cicatrices_en_pont</t>
-  </si>
-  <si>
     <t>Stade 2</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>Aisselles Pubis</t>
   </si>
   <si>
-    <t>Nodules Fistules</t>
-  </si>
-  <si>
     <t>aucune</t>
   </si>
   <si>
@@ -268,12 +259,6 @@
     <t>HTA</t>
   </si>
   <si>
-    <t>Cuir chevelu Aisselles Fesses Pubis</t>
-  </si>
-  <si>
-    <t>Nodules Masses abcedées</t>
-  </si>
-  <si>
     <t>Amoxicilline+acide clavulanique</t>
   </si>
   <si>
@@ -298,9 +283,6 @@
     <t>Acide fusidique</t>
   </si>
   <si>
-    <t>Visage Aisselles Fesses Seins</t>
-  </si>
-  <si>
     <t>Amélioration</t>
   </si>
   <si>
@@ -313,9 +295,6 @@
     <t>Antibiotiques locaux Antibiotiques généraux</t>
   </si>
   <si>
-    <t>Aisselles Fesses Autres (Si autres préciser)</t>
-  </si>
-  <si>
     <t>Coudes</t>
   </si>
   <si>
@@ -337,24 +316,12 @@
     <t>Sévère</t>
   </si>
   <si>
-    <t>Aisselles Plis inguinaux</t>
-  </si>
-  <si>
-    <t>Aisselles Autres (Si autres préciser) Seins</t>
-  </si>
-  <si>
     <t>Bras</t>
   </si>
   <si>
-    <t>Masses abcedées Fistules</t>
-  </si>
-  <si>
     <t>Dépigmentation volontaire</t>
   </si>
   <si>
-    <t>Aisselles Fesses Pubis Plis inguinaux</t>
-  </si>
-  <si>
     <t>Stress</t>
   </si>
   <si>
@@ -367,9 +334,6 @@
     <t>Guérison</t>
   </si>
   <si>
-    <t>Cuir chevelu Aisselles Fesses</t>
-  </si>
-  <si>
     <t>Amoxicilline+acide clavulanique Autre</t>
   </si>
   <si>
@@ -382,12 +346,6 @@
     <t>Maladie de verneuil</t>
   </si>
   <si>
-    <t>Aisselles Fesses</t>
-  </si>
-  <si>
-    <t>Nodules Masses abcedées Fistules Trajet sinueux Cicatrices en crabes Cicatrices en pont</t>
-  </si>
-  <si>
     <t>Stade 3</t>
   </si>
   <si>
@@ -403,12 +361,6 @@
     <t xml:space="preserve">Autre </t>
   </si>
   <si>
-    <t>Cuir chevelu Aisselles Pubis</t>
-  </si>
-  <si>
-    <t>Nodules Fistules Trajet sinueux Cicatrices en pont</t>
-  </si>
-  <si>
     <t>Antibiotiques généraux Isotrétinoine</t>
   </si>
   <si>
@@ -418,30 +370,12 @@
     <t>Tabac</t>
   </si>
   <si>
-    <t>Aisselles Fesses Pubis</t>
-  </si>
-  <si>
-    <t>Nodules Trajet sinueux</t>
-  </si>
-  <si>
     <t>Non précisé</t>
   </si>
   <si>
-    <t>Aisselles Dos</t>
-  </si>
-  <si>
-    <t>Lésions solides Écoulement purulent</t>
-  </si>
-  <si>
-    <t>Masses abcedées Fistules Trajet sinueux</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ouvriers et employés non qualifiés (aide ménage, vendeur ambulant) </t>
   </si>
   <si>
-    <t>Nodules Masses abcedées Fistules</t>
-  </si>
-  <si>
     <t>chud_parakou</t>
   </si>
   <si>
@@ -454,9 +388,6 @@
     <t>Fesses</t>
   </si>
   <si>
-    <t>Fistules Trajet sinueux</t>
-  </si>
-  <si>
     <t>VIH Atopie</t>
   </si>
   <si>
@@ -478,9 +409,6 @@
     <t>HTA Diabète</t>
   </si>
   <si>
-    <t>Visage Aisselles</t>
-  </si>
-  <si>
     <t>Erythromycine</t>
   </si>
   <si>
@@ -499,9 +427,6 @@
     <t>Prednisolone</t>
   </si>
   <si>
-    <t>Lésions solides Lésions liquidiennes</t>
-  </si>
-  <si>
     <t>Isotrétinoine</t>
   </si>
   <si>
@@ -520,28 +445,106 @@
     <t>Pubis Fesses</t>
   </si>
   <si>
-    <t>Fesses Plis inguinaux Périnée</t>
-  </si>
-  <si>
     <t>Rovamycine Autre</t>
   </si>
   <si>
     <t>Metronidazole</t>
   </si>
   <si>
-    <t>Lésions liquidiennes Écoulement purulent</t>
-  </si>
-  <si>
     <t>Orientation vers un autre spécialiste</t>
   </si>
   <si>
     <t>HTA VIH</t>
   </si>
   <si>
-    <t>Fesses Périnée</t>
-  </si>
-  <si>
-    <t>Fistules Trajet sinueux Cicatrices en crabes</t>
+    <t>Lésions solides  Écoulement purulent</t>
+  </si>
+  <si>
+    <t>Lésions solides  Lésions liquidiennes</t>
+  </si>
+  <si>
+    <t>Lésions liquidiennes  Écoulement purulent</t>
+  </si>
+  <si>
+    <t>Cuir chevelu  Visage</t>
+  </si>
+  <si>
+    <t>Aisselles  Pubis</t>
+  </si>
+  <si>
+    <t>Cuir chevelu  Aisselles  Fesses  Pubis</t>
+  </si>
+  <si>
+    <t>Visage  Aisselles  Fesses  Seins</t>
+  </si>
+  <si>
+    <t>Aisselles  Fesses  Autres (Si autres préciser)</t>
+  </si>
+  <si>
+    <t>Aisselles  Plis inguinaux</t>
+  </si>
+  <si>
+    <t>Aisselles  Autres (Si autres préciser)  Seins</t>
+  </si>
+  <si>
+    <t>Aisselles  Fesses  Pubis  Plis inguinaux</t>
+  </si>
+  <si>
+    <t>Cuir chevelu  Aisselles  Fesses</t>
+  </si>
+  <si>
+    <t>Aisselles  Fesses</t>
+  </si>
+  <si>
+    <t>Cuir chevelu  Aisselles  Pubis</t>
+  </si>
+  <si>
+    <t>Aisselles  Fesses  Pubis</t>
+  </si>
+  <si>
+    <t>Aisselles  Dos</t>
+  </si>
+  <si>
+    <t>Visage  Aisselles</t>
+  </si>
+  <si>
+    <t>Fesses  Plis inguinaux  Périnée</t>
+  </si>
+  <si>
+    <t>Fesses  Périnée</t>
+  </si>
+  <si>
+    <t>Nodules  Cicatrices en pont</t>
+  </si>
+  <si>
+    <t>Nodules  Fistules</t>
+  </si>
+  <si>
+    <t>Nodules  Masses abcedées</t>
+  </si>
+  <si>
+    <t>Masses abcedées  Fistules</t>
+  </si>
+  <si>
+    <t>Nodules  Masses abcedées  Fistules  Trajet sinueux  Cicatrices en crabes  Cicatrices en pont</t>
+  </si>
+  <si>
+    <t>Nodules  Fistules  Trajet sinueux  Cicatrices en pont</t>
+  </si>
+  <si>
+    <t>Nodules  Trajet sinueux</t>
+  </si>
+  <si>
+    <t>Masses abcedées  Fistules  Trajet sinueux</t>
+  </si>
+  <si>
+    <t>Nodules  Masses abcedées  Fistules</t>
+  </si>
+  <si>
+    <t>Fistules  Trajet sinueux</t>
+  </si>
+  <si>
+    <t>Fistules  Trajet sinueux  Cicatrices en crabes</t>
   </si>
 </sst>
 </file>
@@ -597,9 +600,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -637,9 +640,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,26 +675,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,26 +710,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -919,13 +888,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView tabSelected="1" topLeftCell="T40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>24</v>
       </c>
@@ -1085,34 +1054,34 @@
         <v>41</v>
       </c>
       <c r="V2" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s">
         <v>52</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>54</v>
       </c>
       <c r="AH2">
         <v>3</v>
@@ -1121,12 +1090,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1138,10 +1107,10 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -1153,49 +1122,49 @@
         <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N3" t="s">
         <v>44</v>
       </c>
       <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>149</v>
+      </c>
+      <c r="X3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="s">
         <v>62</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AB3" t="s">
         <v>63</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AD3" t="s">
         <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>67</v>
       </c>
       <c r="AF3" t="s">
         <v>33</v>
@@ -1207,12 +1176,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1221,7 +1190,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1233,10 +1202,10 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
@@ -1254,28 +1223,28 @@
         <v>33</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" t="s">
         <v>62</v>
       </c>
-      <c r="V4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>65</v>
-      </c>
       <c r="AB4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AD4" t="s">
         <v>41</v>
@@ -1290,12 +1259,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -1304,13 +1273,13 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -1322,7 +1291,7 @@
         <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
@@ -1343,22 +1312,22 @@
         <v>41</v>
       </c>
       <c r="V5" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="X5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s">
         <v>33</v>
@@ -1370,12 +1339,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1387,22 +1356,22 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
         <v>33</v>
@@ -1426,25 +1395,25 @@
         <v>41</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s">
         <v>30</v>
       </c>
       <c r="AD6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s">
         <v>33</v>
@@ -1456,7 +1425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>43</v>
       </c>
@@ -1470,13 +1439,13 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7">
         <v>24</v>
@@ -1485,10 +1454,10 @@
         <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
@@ -1506,28 +1475,28 @@
         <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="Y7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s">
         <v>30</v>
       </c>
       <c r="AD7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s">
         <v>33</v>
@@ -1539,7 +1508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1553,10 +1522,10 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -1568,7 +1537,7 @@
         <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
         <v>33</v>
@@ -1583,28 +1552,28 @@
         <v>33</v>
       </c>
       <c r="S8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s">
         <v>41</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AD8" t="s">
         <v>41</v>
@@ -1622,24 +1591,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1651,7 +1620,7 @@
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
         <v>41</v>
@@ -1669,39 +1638,39 @@
         <v>41</v>
       </c>
       <c r="V9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Y9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s">
         <v>29</v>
       </c>
       <c r="AC9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AF9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -1710,7 +1679,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H10">
         <v>108</v>
@@ -1743,19 +1712,19 @@
         <v>41</v>
       </c>
       <c r="V10" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="X10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s">
         <v>29</v>
@@ -1767,24 +1736,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -1796,7 +1765,7 @@
         <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
         <v>33</v>
@@ -1817,51 +1786,51 @@
         <v>41</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s">
         <v>30</v>
       </c>
       <c r="AD11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s">
         <v>33</v>
       </c>
       <c r="AG11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H12">
         <v>36</v>
@@ -1873,7 +1842,7 @@
         <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
         <v>33</v>
@@ -1894,25 +1863,25 @@
         <v>41</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s">
         <v>30</v>
       </c>
       <c r="AD12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF12" t="s">
         <v>33</v>
@@ -1921,24 +1890,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H13">
         <v>24</v>
@@ -1950,7 +1919,7 @@
         <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
         <v>33</v>
@@ -1971,42 +1940,42 @@
         <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD13" t="s">
         <v>79</v>
       </c>
-      <c r="AB13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>84</v>
-      </c>
       <c r="AF13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -2015,10 +1984,10 @@
         <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H14">
         <v>60</v>
@@ -2030,7 +1999,7 @@
         <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s">
         <v>44</v>
@@ -2048,40 +2017,40 @@
         <v>41</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="W14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="X14" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD14" t="s">
         <v>79</v>
       </c>
-      <c r="AB14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>84</v>
-      </c>
       <c r="AF14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>36</v>
       </c>
@@ -2092,22 +2061,22 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H15">
         <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s">
         <v>43</v>
@@ -2125,28 +2094,28 @@
         <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="V15" t="s">
         <v>43</v>
       </c>
       <c r="X15" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s">
         <v>30</v>
       </c>
       <c r="AD15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s">
         <v>33</v>
@@ -2155,27 +2124,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -2184,10 +2153,10 @@
         <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L16" t="s">
         <v>44</v>
@@ -2208,63 +2177,63 @@
         <v>41</v>
       </c>
       <c r="V16" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="X16" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD16" t="s">
         <v>79</v>
       </c>
-      <c r="AB16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>84</v>
-      </c>
       <c r="AF16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H17">
         <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
         <v>44</v>
@@ -2279,69 +2248,69 @@
         <v>33</v>
       </c>
       <c r="U17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="W17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X17" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s">
         <v>30</v>
       </c>
       <c r="AD17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H18">
         <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L18" t="s">
         <v>33</v>
@@ -2359,48 +2328,48 @@
         <v>33</v>
       </c>
       <c r="S18" t="s">
+        <v>69</v>
+      </c>
+      <c r="T18" t="s">
+        <v>99</v>
+      </c>
+      <c r="U18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA18" t="s">
         <v>72</v>
       </c>
-      <c r="T18" t="s">
-        <v>109</v>
-      </c>
-      <c r="U18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V18" t="s">
-        <v>110</v>
-      </c>
-      <c r="X18" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>75</v>
-      </c>
       <c r="AB18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AC18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AF18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -2409,25 +2378,25 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H19">
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
         <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L19" t="s">
         <v>33</v>
@@ -2439,13 +2408,13 @@
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Q19" t="s">
         <v>44</v>
       </c>
       <c r="R19" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="S19" t="s">
         <v>41</v>
@@ -2454,34 +2423,34 @@
         <v>41</v>
       </c>
       <c r="V19" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="X19" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="Y19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AC19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AD19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s">
         <v>33</v>
       </c>
       <c r="AG19" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AH19">
         <v>3</v>
@@ -2490,7 +2459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>39</v>
       </c>
@@ -2498,19 +2467,19 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H20">
         <v>36</v>
@@ -2522,7 +2491,7 @@
         <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L20" t="s">
         <v>44</v>
@@ -2534,13 +2503,13 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q20" t="s">
         <v>44</v>
       </c>
       <c r="R20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="S20" t="s">
         <v>41</v>
@@ -2549,28 +2518,28 @@
         <v>41</v>
       </c>
       <c r="V20" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="X20" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="Y20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA20" t="s">
         <v>49</v>
       </c>
-      <c r="Z20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>51</v>
-      </c>
       <c r="AB20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AC20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD20" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s">
         <v>33</v>
@@ -2582,21 +2551,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
         <v>40</v>
@@ -2611,7 +2580,7 @@
         <v>42</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L21" t="s">
         <v>33</v>
@@ -2629,37 +2598,37 @@
         <v>33</v>
       </c>
       <c r="S21" t="s">
+        <v>69</v>
+      </c>
+      <c r="T21" t="s">
+        <v>99</v>
+      </c>
+      <c r="U21" t="s">
+        <v>60</v>
+      </c>
+      <c r="V21" t="s">
+        <v>56</v>
+      </c>
+      <c r="X21" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA21" t="s">
         <v>72</v>
       </c>
-      <c r="T21" t="s">
-        <v>109</v>
-      </c>
-      <c r="U21" t="s">
-        <v>62</v>
-      </c>
-      <c r="V21" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>75</v>
-      </c>
       <c r="AB21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AD21" t="s">
         <v>41</v>
       </c>
       <c r="AE21" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="s">
         <v>33</v>
@@ -2671,7 +2640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>38</v>
       </c>
@@ -2682,16 +2651,16 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H22">
         <v>24</v>
@@ -2703,7 +2672,7 @@
         <v>41</v>
       </c>
       <c r="K22" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s">
         <v>44</v>
@@ -2715,13 +2684,13 @@
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="Q22" t="s">
         <v>44</v>
       </c>
       <c r="R22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="S22" t="s">
         <v>41</v>
@@ -2730,28 +2699,28 @@
         <v>41</v>
       </c>
       <c r="V22" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="X22" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="Y22" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Z22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA22" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="AB22" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="AD22" t="s">
         <v>3</v>
       </c>
       <c r="AE22" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="AF22" t="s">
         <v>33</v>
@@ -2763,24 +2732,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H23">
         <v>12</v>
@@ -2789,10 +2758,10 @@
         <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L23" t="s">
         <v>33</v>
@@ -2813,19 +2782,19 @@
         <v>41</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA23" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="AB23" t="s">
         <v>41</v>
@@ -2837,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>39</v>
       </c>
@@ -2848,10 +2817,10 @@
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
         <v>40</v>
@@ -2866,7 +2835,7 @@
         <v>41</v>
       </c>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s">
         <v>44</v>
@@ -2878,13 +2847,13 @@
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Q24" t="s">
         <v>44</v>
       </c>
       <c r="R24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="S24" t="s">
         <v>41</v>
@@ -2893,28 +2862,28 @@
         <v>41</v>
       </c>
       <c r="V24" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="X24" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="Y24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AC24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AD24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s">
         <v>33</v>
@@ -2926,7 +2895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>40</v>
       </c>
@@ -2937,16 +2906,16 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -2958,7 +2927,7 @@
         <v>41</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L25" t="s">
         <v>44</v>
@@ -2970,7 +2939,7 @@
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Q25" t="s">
         <v>33</v>
@@ -2982,25 +2951,25 @@
         <v>41</v>
       </c>
       <c r="V25" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="X25" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="Y25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA25" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="AB25" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="AD25" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="AF25" t="s">
         <v>33</v>
@@ -3012,27 +2981,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H26">
         <v>24</v>
@@ -3041,10 +3010,10 @@
         <v>41</v>
       </c>
       <c r="J26" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L26" t="s">
         <v>44</v>
@@ -3065,28 +3034,28 @@
         <v>41</v>
       </c>
       <c r="U26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="X26" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="Y26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s">
         <v>30</v>
       </c>
       <c r="AD26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AF26" t="s">
         <v>33</v>
@@ -3098,7 +3067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>23</v>
       </c>
@@ -3106,13 +3075,13 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3124,7 +3093,7 @@
         <v>41</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M27" t="s">
         <v>41</v>
@@ -3136,45 +3105,45 @@
         <v>33</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Y27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s">
         <v>30</v>
       </c>
       <c r="AD27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3186,7 +3155,7 @@
         <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M28" t="s">
         <v>41</v>
@@ -3198,57 +3167,57 @@
         <v>33</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X28" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="Y28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s">
         <v>30</v>
       </c>
       <c r="AD28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N29" t="s">
         <v>33</v>
@@ -3257,54 +3226,54 @@
         <v>33</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X29" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="Y29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AF29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M30" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N30" t="s">
         <v>33</v>
@@ -3313,57 +3282,57 @@
         <v>33</v>
       </c>
       <c r="V30" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="X30" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="Y30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB30" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AF30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="M31" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N31" t="s">
         <v>33</v>
@@ -3372,45 +3341,45 @@
         <v>33</v>
       </c>
       <c r="V31" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="X31" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="Y31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AF31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H32">
         <v>84</v>
@@ -3422,7 +3391,7 @@
         <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L32" t="s">
         <v>44</v>
@@ -3437,25 +3406,25 @@
         <v>33</v>
       </c>
       <c r="V32" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="X32" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="Y32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s">
         <v>30</v>
       </c>
       <c r="AD32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF32" t="s">
         <v>33</v>
@@ -3464,7 +3433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>21</v>
       </c>
@@ -3472,16 +3441,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H33">
         <v>12</v>
@@ -3493,7 +3462,7 @@
         <v>41</v>
       </c>
       <c r="K33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L33" t="s">
         <v>33</v>
@@ -3511,40 +3480,40 @@
         <v>41</v>
       </c>
       <c r="U33" t="s">
+        <v>81</v>
+      </c>
+      <c r="V33" t="s">
+        <v>56</v>
+      </c>
+      <c r="X33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC33" t="s">
         <v>86</v>
-      </c>
-      <c r="V33" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>91</v>
       </c>
       <c r="AD33" t="s">
         <v>3</v>
       </c>
       <c r="AE33" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AF33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>28</v>
       </c>
@@ -3552,31 +3521,31 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
         <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H34">
         <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J34" t="s">
         <v>41</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="M34" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N34" t="s">
         <v>33</v>
@@ -3591,45 +3560,45 @@
         <v>41</v>
       </c>
       <c r="V34" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="X34" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="Y34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA34" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="AB34" t="s">
         <v>30</v>
       </c>
       <c r="AD34" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AF34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
         <v>40</v>
@@ -3644,7 +3613,7 @@
         <v>41</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M35" t="s">
         <v>45</v>
@@ -3656,60 +3625,60 @@
         <v>33</v>
       </c>
       <c r="S35" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="U35" t="s">
         <v>41</v>
       </c>
       <c r="V35" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="X35" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="Y35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="AC35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AD35" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="AF35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H36">
         <v>9</v>
@@ -3721,13 +3690,13 @@
         <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L36" t="s">
         <v>33</v>
       </c>
       <c r="M36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N36" t="s">
         <v>33</v>
@@ -3742,54 +3711,54 @@
         <v>41</v>
       </c>
       <c r="V36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X36" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="Y36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB36" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="AC36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AD36" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AF36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -3801,7 +3770,7 @@
         <v>41</v>
       </c>
       <c r="K37" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="L37" t="s">
         <v>33</v>
@@ -3816,72 +3785,72 @@
         <v>33</v>
       </c>
       <c r="S37" t="s">
+        <v>69</v>
+      </c>
+      <c r="T37" t="s">
+        <v>127</v>
+      </c>
+      <c r="U37" t="s">
+        <v>128</v>
+      </c>
+      <c r="V37" t="s">
+        <v>126</v>
+      </c>
+      <c r="X37" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA37" t="s">
         <v>72</v>
       </c>
-      <c r="T37" t="s">
-        <v>150</v>
-      </c>
-      <c r="U37" t="s">
-        <v>151</v>
-      </c>
-      <c r="V37" t="s">
-        <v>149</v>
-      </c>
-      <c r="X37" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>75</v>
-      </c>
       <c r="AB37" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AC37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AD37" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AF37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
         <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J38" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K38" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="M38" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N38" t="s">
         <v>33</v>
@@ -3896,45 +3865,45 @@
         <v>41</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X38" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="Y38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AF38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H39">
         <v>72</v>
@@ -3946,7 +3915,7 @@
         <v>41</v>
       </c>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L39" t="s">
         <v>33</v>
@@ -3958,7 +3927,7 @@
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Q39" t="s">
         <v>33</v>
@@ -3970,19 +3939,19 @@
         <v>41</v>
       </c>
       <c r="V39" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="X39" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="Y39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s">
         <v>41</v>
@@ -3994,27 +3963,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>30</v>
       </c>
       <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" t="s">
         <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
       </c>
       <c r="H40">
         <v>6</v>
@@ -4026,7 +3995,7 @@
         <v>41</v>
       </c>
       <c r="K40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L40" t="s">
         <v>33</v>
@@ -4047,31 +4016,31 @@
         <v>41</v>
       </c>
       <c r="V40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s">
         <v>30</v>
       </c>
       <c r="AD40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>22</v>
       </c>
@@ -4079,19 +4048,19 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H41">
         <v>48</v>
@@ -4100,13 +4069,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="K41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M41" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N41" t="s">
         <v>33</v>
@@ -4121,31 +4090,31 @@
         <v>41</v>
       </c>
       <c r="V41" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="X41" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="Y41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB41" t="s">
         <v>30</v>
       </c>
       <c r="AD41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>46</v>
       </c>
@@ -4153,19 +4122,19 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -4174,10 +4143,10 @@
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M42" t="s">
         <v>41</v>
@@ -4189,72 +4158,72 @@
         <v>33</v>
       </c>
       <c r="S42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
         <v>41</v>
       </c>
       <c r="V42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X42" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="Y42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA42" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="AB42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AC42" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="AD42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H43">
         <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="J43" t="s">
         <v>41</v>
       </c>
       <c r="K43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M43" t="s">
         <v>41</v>
@@ -4269,40 +4238,40 @@
         <v>41</v>
       </c>
       <c r="U43" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="V43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X43" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="Y43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB43" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="AC43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AD43" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="AE43" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="AF43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>25</v>
       </c>
@@ -4310,13 +4279,13 @@
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H44">
         <v>36</v>
@@ -4328,7 +4297,7 @@
         <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L44" t="s">
         <v>33</v>
@@ -4349,31 +4318,31 @@
         <v>41</v>
       </c>
       <c r="V44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB44" t="s">
         <v>30</v>
       </c>
       <c r="AD44" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>39</v>
       </c>
@@ -4381,25 +4350,25 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J45" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K45" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="M45" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N45" t="s">
         <v>33</v>
@@ -4414,28 +4383,28 @@
         <v>41</v>
       </c>
       <c r="V45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X45" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="Y45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="AF45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>31</v>
       </c>
@@ -4443,25 +4412,25 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K46" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="M46" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N46" t="s">
         <v>33</v>
@@ -4470,31 +4439,31 @@
         <v>33</v>
       </c>
       <c r="V46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB46" t="s">
         <v>30</v>
       </c>
       <c r="AD46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>49</v>
       </c>
@@ -4508,19 +4477,19 @@
         <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H47">
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="J47" t="s">
         <v>41</v>
@@ -4532,7 +4501,7 @@
         <v>44</v>
       </c>
       <c r="M47" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="N47" t="s">
         <v>33</v>
@@ -4544,7 +4513,7 @@
         <v>33</v>
       </c>
       <c r="S47" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="U47" t="s">
         <v>41</v>
@@ -4553,31 +4522,31 @@
         <v>43</v>
       </c>
       <c r="X47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA47" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="AB47" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="AC47" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AD47" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AF47" t="s">
         <v>33</v>
       </c>
       <c r="AG47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH47">
         <v>2</v>
@@ -4586,7 +4555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>45</v>
       </c>
@@ -4594,16 +4563,16 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="H48">
         <v>6</v>
@@ -4615,13 +4584,13 @@
         <v>41</v>
       </c>
       <c r="K48" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="L48" t="s">
         <v>44</v>
       </c>
       <c r="M48" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N48" t="s">
         <v>33</v>
@@ -4636,37 +4605,37 @@
         <v>41</v>
       </c>
       <c r="V48" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="X48" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="Y48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB48" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="AC48" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="AD48" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="AE48" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="AF48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>38</v>
       </c>
@@ -4677,16 +4646,16 @@
         <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H49">
         <v>8</v>
@@ -4698,7 +4667,7 @@
         <v>41</v>
       </c>
       <c r="K49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L49" t="s">
         <v>33</v>
@@ -4713,7 +4682,7 @@
         <v>44</v>
       </c>
       <c r="R49" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="S49" t="s">
         <v>41</v>
@@ -4722,28 +4691,28 @@
         <v>41</v>
       </c>
       <c r="V49" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="X49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA49" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD49" t="s">
         <v>79</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>84</v>
       </c>
       <c r="AF49" t="s">
         <v>33</v>
@@ -4752,7 +4721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>63</v>
       </c>
@@ -4763,13 +4732,13 @@
         <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="H50">
         <v>120</v>
@@ -4781,7 +4750,7 @@
         <v>41</v>
       </c>
       <c r="K50" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="L50" t="s">
         <v>33</v>
@@ -4793,40 +4762,40 @@
         <v>33</v>
       </c>
       <c r="O50" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Q50" t="s">
         <v>44</v>
       </c>
       <c r="R50" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="S50" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="U50" t="s">
         <v>41</v>
       </c>
       <c r="V50" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="X50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y50" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Z50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB50" t="s">
         <v>30</v>
       </c>
       <c r="AD50" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s">
         <v>44</v>
